--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T22:43:52+00:00</t>
+    <t>2023-11-27T20:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-name-type</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-name-type-vs</t>
   </si>
   <si>
     <t>CommonDataModelResearchStudy.description</t>
@@ -537,7 +537,7 @@
     <t>The role of the person being described.</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-personnel-role</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-personnel-role-vs</t>
   </si>
   <si>
     <t>CommonDataModelResearchStudy.personnel.organization</t>
@@ -1456,7 +1456,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://nih-ncpi.github.io/ncpi-fhir-ig/CodeSystem/ncpi"/&gt;
+  &lt;system value="https://nih-ncpi.github.io/ncpi-fhir-ig-2/CodeSystem/ncpi"/&gt;
   &lt;code value="StudyCohort"/&gt;
   &lt;display value="Study Cohort"/&gt;
 &lt;/valueCoding&gt;</t>
@@ -1870,7 +1870,7 @@
     <t>Extension.extension:role.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/research-study-party-role</t>
+    <t>https://hl7.org/fhir/valueset-research-study-party-role.html</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -1916,7 +1916,7 @@
     <t>Extension.extension:classifier.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/research-study-party-organization-type</t>
+    <t>https://hl7.org/fhir/valueset-research-study-party-organization-type.html</t>
   </si>
   <si>
     <t>Extension.extension:party</t>
@@ -1960,7 +1960,7 @@
     <t>Research Study Design</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/study-design</t>
+    <t>https://hl7.org/fhir/valueset-study-design.html</t>
   </si>
   <si>
     <t>research-study-result</t>
@@ -3118,14 +3118,14 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="71.0625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="72.890625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="64.41015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="67.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T20:47:53+00:00</t>
+    <t>2023-11-27T21:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30114,7 +30114,7 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>78</v>
@@ -30633,7 +30633,7 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>78</v>
